--- a/data/predictions/gender/divorce/overall/independent.xlsx
+++ b/data/predictions/gender/divorce/overall/independent.xlsx
@@ -823,7 +823,7 @@
         <v>2019</v>
       </c>
       <c r="C34">
-        <v>0.3471225997083664</v>
+        <v>0.3444445013784653</v>
       </c>
       <c r="D34">
         <v>0.2545416549150434</v>
@@ -837,7 +837,7 @@
         <v>2020</v>
       </c>
       <c r="C35">
-        <v>0.3587010395645316</v>
+        <v>0.2957036636386873</v>
       </c>
       <c r="D35">
         <v>0.2397731935966508</v>
@@ -851,7 +851,7 @@
         <v>2021</v>
       </c>
       <c r="C36">
-        <v>0.324671268270381</v>
+        <v>0.3183933302890603</v>
       </c>
       <c r="D36">
         <v>0.2451585625221209</v>
@@ -865,7 +865,7 @@
         <v>2022</v>
       </c>
       <c r="C37">
-        <v>0.3259407679703121</v>
+        <v>0.3163900205522768</v>
       </c>
       <c r="D37">
         <v>0.2523619670982021</v>
@@ -879,7 +879,7 @@
         <v>2023</v>
       </c>
       <c r="C38">
-        <v>0.3397349463343624</v>
+        <v>0.3144110473877813</v>
       </c>
       <c r="D38">
         <v>0.250013511526741</v>
@@ -893,7 +893,7 @@
         <v>2024</v>
       </c>
       <c r="C39">
-        <v>0.3274674282081737</v>
+        <v>0.3124182580863701</v>
       </c>
       <c r="D39">
         <v>0.2490965093982191</v>
